--- a/simulation_data/two_step_algorithm/2s_error_level_1_percent_water_1.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_1_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.5463432969724</v>
+        <v>93.72076730457184</v>
       </c>
       <c r="D2" t="n">
-        <v>1.088955596173018</v>
+        <v>1.133917790146604</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.29494846246986</v>
+        <v>92.55560811019146</v>
       </c>
       <c r="D3" t="n">
-        <v>1.294379807326448</v>
+        <v>1.048448127796892</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.28056934076521</v>
+        <v>91.32616602624121</v>
       </c>
       <c r="D4" t="n">
-        <v>1.303530552712937</v>
+        <v>1.210985107648143</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.15636429208502</v>
+        <v>90.36473474155473</v>
       </c>
       <c r="D5" t="n">
-        <v>1.123957571759589</v>
+        <v>1.06218436347089</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.20810607458378</v>
+        <v>88.93588700205548</v>
       </c>
       <c r="D6" t="n">
-        <v>1.237736387167773</v>
+        <v>1.06161399429032</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.02956420628176</v>
+        <v>87.95368076295716</v>
       </c>
       <c r="D7" t="n">
-        <v>1.219738693926036</v>
+        <v>1.053835546094794</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.82247026826721</v>
+        <v>86.70570920095913</v>
       </c>
       <c r="D8" t="n">
-        <v>1.183238867200735</v>
+        <v>1.143989329581468</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.85507926760577</v>
+        <v>86.09047779611319</v>
       </c>
       <c r="D9" t="n">
-        <v>1.282181350708561</v>
+        <v>1.095359547916697</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.88956097085085</v>
+        <v>84.63753322413115</v>
       </c>
       <c r="D10" t="n">
-        <v>1.065473381887909</v>
+        <v>1.148743370541779</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.84165946722877</v>
+        <v>83.76248712514285</v>
       </c>
       <c r="D11" t="n">
-        <v>1.00907467676709</v>
+        <v>1.187903975665561</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.58127381295124</v>
+        <v>82.66548733352174</v>
       </c>
       <c r="D12" t="n">
-        <v>1.340899909868981</v>
+        <v>1.125571358347102</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.55303379090262</v>
+        <v>81.58419432160029</v>
       </c>
       <c r="D13" t="n">
-        <v>1.312808883253429</v>
+        <v>1.12690210514611</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.33656999908894</v>
+        <v>80.21570481311329</v>
       </c>
       <c r="D14" t="n">
-        <v>1.2166418768502</v>
+        <v>1.141527537109694</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.11385454074762</v>
+        <v>79.39129464379518</v>
       </c>
       <c r="D15" t="n">
-        <v>1.177608399815078</v>
+        <v>1.22973313519749</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.94724957163405</v>
+        <v>78.02728278388508</v>
       </c>
       <c r="D16" t="n">
-        <v>1.155985899478214</v>
+        <v>1.175596676525425</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.36161037900013</v>
+        <v>76.96850687602721</v>
       </c>
       <c r="D17" t="n">
-        <v>1.283372218556226</v>
+        <v>1.044265790806285</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.28553894614991</v>
+        <v>75.89396419915893</v>
       </c>
       <c r="D18" t="n">
-        <v>1.213842161550779</v>
+        <v>1.197836633477627</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.76936931151778</v>
+        <v>74.89052725123599</v>
       </c>
       <c r="D19" t="n">
-        <v>1.138635535457473</v>
+        <v>1.220196160578263</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.84734900341793</v>
+        <v>73.83040286961116</v>
       </c>
       <c r="D20" t="n">
-        <v>1.246068970143701</v>
+        <v>1.179678703997784</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.78718540118477</v>
+        <v>72.76852821975709</v>
       </c>
       <c r="D21" t="n">
-        <v>1.116191193392503</v>
+        <v>1.204655382284633</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.78830503197463</v>
+        <v>71.7067201449529</v>
       </c>
       <c r="D22" t="n">
-        <v>1.092710034633012</v>
+        <v>0.9730925454765234</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.69087144633791</v>
+        <v>70.76201688764604</v>
       </c>
       <c r="D23" t="n">
-        <v>1.28741172405741</v>
+        <v>1.099521565260422</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.55570289945031</v>
+        <v>69.46965532052565</v>
       </c>
       <c r="D24" t="n">
-        <v>1.16745963769103</v>
+        <v>1.178272588482895</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.55825301744369</v>
+        <v>68.61524201708207</v>
       </c>
       <c r="D25" t="n">
-        <v>1.202989503350279</v>
+        <v>1.1641740112911</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.53253959114144</v>
+        <v>67.50907843123518</v>
       </c>
       <c r="D26" t="n">
-        <v>1.215500313916029</v>
+        <v>1.101475998486247</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.5318696808571</v>
+        <v>66.69658697223849</v>
       </c>
       <c r="D27" t="n">
-        <v>1.249019860543037</v>
+        <v>1.055777872482941</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.24386718177166</v>
+        <v>65.31173155144681</v>
       </c>
       <c r="D28" t="n">
-        <v>1.274000075824064</v>
+        <v>1.116973917864927</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.18203906036555</v>
+        <v>63.99979170175075</v>
       </c>
       <c r="D29" t="n">
-        <v>1.278642630775328</v>
+        <v>1.13200686934365</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.22261870893625</v>
+        <v>63.36761308361389</v>
       </c>
       <c r="D30" t="n">
-        <v>1.116087969937954</v>
+        <v>1.225480366325587</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.14425316969371</v>
+        <v>62.09210429246261</v>
       </c>
       <c r="D31" t="n">
-        <v>1.095925297433814</v>
+        <v>1.221287056793154</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.95161057737133</v>
+        <v>61.11119822762264</v>
       </c>
       <c r="D32" t="n">
-        <v>1.204912248231131</v>
+        <v>1.205604098437617</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.8446805835466</v>
+        <v>59.9233297044975</v>
       </c>
       <c r="D33" t="n">
-        <v>1.138435639513797</v>
+        <v>1.173103042562359</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.94269421852106</v>
+        <v>58.97331589329134</v>
       </c>
       <c r="D34" t="n">
-        <v>1.173200275270103</v>
+        <v>1.216300493798375</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.04219859822978</v>
+        <v>57.90972423608296</v>
       </c>
       <c r="D35" t="n">
-        <v>1.148038371721683</v>
+        <v>1.126364140965604</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.95008290202857</v>
+        <v>57.01220086586344</v>
       </c>
       <c r="D36" t="n">
-        <v>1.125361283730988</v>
+        <v>1.089468011682345</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.56539746284832</v>
+        <v>55.70838935903099</v>
       </c>
       <c r="D37" t="n">
-        <v>1.060757247101393</v>
+        <v>1.089955024403031</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.61550529550571</v>
+        <v>54.76536620421352</v>
       </c>
       <c r="D38" t="n">
-        <v>1.024460519140344</v>
+        <v>1.183223495502912</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.86267037239303</v>
+        <v>53.85407506451523</v>
       </c>
       <c r="D39" t="n">
-        <v>1.235982410313583</v>
+        <v>1.107121363688436</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.70905657894502</v>
+        <v>52.62709390180359</v>
       </c>
       <c r="D40" t="n">
-        <v>1.156959190706023</v>
+        <v>1.065832400869708</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.81354185469107</v>
+        <v>51.52909137954371</v>
       </c>
       <c r="D41" t="n">
-        <v>1.186299768302442</v>
+        <v>1.269469766415643</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.51303907385031</v>
+        <v>50.82147299040776</v>
       </c>
       <c r="D42" t="n">
-        <v>1.150255851851908</v>
+        <v>1.139919171678425</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.59688684339451</v>
+        <v>49.50353947066813</v>
       </c>
       <c r="D43" t="n">
-        <v>1.22625977206024</v>
+        <v>1.092640173985044</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.57650826959236</v>
+        <v>48.4147333962254</v>
       </c>
       <c r="D44" t="n">
-        <v>1.196335099035161</v>
+        <v>1.076788892218285</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.57216652982958</v>
+        <v>47.62000469405215</v>
       </c>
       <c r="D45" t="n">
-        <v>1.211328788569121</v>
+        <v>1.14796973398108</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.46917202565022</v>
+        <v>46.56273634725281</v>
       </c>
       <c r="D46" t="n">
-        <v>1.194604932966594</v>
+        <v>1.17861357374519</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.39156404927452</v>
+        <v>45.37792945204991</v>
       </c>
       <c r="D47" t="n">
-        <v>1.111603251498006</v>
+        <v>1.009977844517223</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.3215732530903</v>
+        <v>44.49517260970433</v>
       </c>
       <c r="D48" t="n">
-        <v>1.285047076662393</v>
+        <v>1.047037709032453</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.43431508512274</v>
+        <v>43.42072676531055</v>
       </c>
       <c r="D49" t="n">
-        <v>1.08358389826222</v>
+        <v>1.050906232809006</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.29531034544718</v>
+        <v>42.31055751145678</v>
       </c>
       <c r="D50" t="n">
-        <v>1.041386144426762</v>
+        <v>1.144871265597956</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.04711659946481</v>
+        <v>41.11586556215618</v>
       </c>
       <c r="D51" t="n">
-        <v>1.085519634891149</v>
+        <v>1.1833749359868</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.21306904740765</v>
+        <v>40.18895548790515</v>
       </c>
       <c r="D52" t="n">
-        <v>1.042395113550427</v>
+        <v>1.09139649953319</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.24280118585957</v>
+        <v>39.10165097029714</v>
       </c>
       <c r="D53" t="n">
-        <v>1.205713923021631</v>
+        <v>1.100811316367068</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.20108421420186</v>
+        <v>38.21385784509359</v>
       </c>
       <c r="D54" t="n">
-        <v>1.044800495256234</v>
+        <v>1.118635129750406</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.22953080911682</v>
+        <v>37.13042382089373</v>
       </c>
       <c r="D55" t="n">
-        <v>1.259199004092442</v>
+        <v>1.089216504924917</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.08386254170437</v>
+        <v>36.12047217112758</v>
       </c>
       <c r="D56" t="n">
-        <v>1.070183320779858</v>
+        <v>1.19884792198357</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.18273608091386</v>
+        <v>35.10774623897333</v>
       </c>
       <c r="D57" t="n">
-        <v>1.014211816997087</v>
+        <v>1.027727206750928</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.17851254574868</v>
+        <v>34.05902804344648</v>
       </c>
       <c r="D58" t="n">
-        <v>1.09993499863768</v>
+        <v>1.131533891531864</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.03238823725503</v>
+        <v>33.11328310454088</v>
       </c>
       <c r="D59" t="n">
-        <v>1.032086053319689</v>
+        <v>0.9795787085288524</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.15626650459614</v>
+        <v>32.12382226543028</v>
       </c>
       <c r="D60" t="n">
-        <v>1.105957178765786</v>
+        <v>1.158905646631383</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.03734523612704</v>
+        <v>31.22625481939921</v>
       </c>
       <c r="D61" t="n">
-        <v>1.105145452985838</v>
+        <v>1.204990163370478</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.07646791866687</v>
+        <v>30.20432712727867</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9752254686510702</v>
+        <v>1.077152867116125</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.90271483046074</v>
+        <v>28.87598863989356</v>
       </c>
       <c r="D63" t="n">
-        <v>1.314058455581119</v>
+        <v>1.142652816939409</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.15679946976211</v>
+        <v>28.07504284565573</v>
       </c>
       <c r="D64" t="n">
-        <v>1.119469459837327</v>
+        <v>1.229326936857165</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.02151637000362</v>
+        <v>26.79206810109205</v>
       </c>
       <c r="D65" t="n">
-        <v>1.169655980726654</v>
+        <v>1.327456914263191</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.08838657616403</v>
+        <v>25.92137920209713</v>
       </c>
       <c r="D66" t="n">
-        <v>1.135855598799978</v>
+        <v>1.298691075389772</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.04217189791537</v>
+        <v>25.00193263372635</v>
       </c>
       <c r="D67" t="n">
-        <v>1.175803698396326</v>
+        <v>1.002387594353896</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.08647964935072</v>
+        <v>23.96659791657126</v>
       </c>
       <c r="D68" t="n">
-        <v>1.082368651492563</v>
+        <v>1.22032098235892</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.14306213540371</v>
+        <v>22.93658400765891</v>
       </c>
       <c r="D69" t="n">
-        <v>1.364910124508552</v>
+        <v>1.149069249785661</v>
       </c>
     </row>
   </sheetData>
